--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject41.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject41.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.58391580467085413</v>
       </c>
       <c r="C1" s="0">
-        <v>0</v>
+        <v>0.87436570760110877</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -161,7 +161,7 @@
         <v>0</v>
       </c>
       <c r="L1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M1" s="0">
         <v>0</v>
@@ -176,7 +176,7 @@
         <v>0</v>
       </c>
       <c r="Q1" s="0">
-        <v>0</v>
+        <v>0.56737302934751732</v>
       </c>
       <c r="R1" s="0">
         <v>0</v>
@@ -236,7 +236,7 @@
         <v>0</v>
       </c>
       <c r="AK1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL1" s="0">
         <v>0</v>
@@ -302,7 +302,7 @@
         <v>0</v>
       </c>
       <c r="BG1" s="0">
-        <v>0</v>
+        <v>0.67644471671414164</v>
       </c>
       <c r="BH1" s="0">
         <v>0</v>
@@ -326,15 +326,15 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.55773649762779853</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.90395111555213448</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -358,7 +358,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="0">
         <v>0</v>
@@ -394,7 +394,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="0">
-        <v>0</v>
+        <v>0.67419150664314764</v>
       </c>
       <c r="V2" s="0">
         <v>0</v>
@@ -409,7 +409,7 @@
         <v>0</v>
       </c>
       <c r="Z2" s="0">
-        <v>0</v>
+        <v>0.58276886665118011</v>
       </c>
       <c r="AA2" s="0">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="0">
-        <v>0</v>
+        <v>0.82061251165773363</v>
       </c>
       <c r="AK2" s="0">
         <v>0</v>
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="AY2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="0">
         <v>0</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0</v>
+        <v>0.89433092749097365</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0</v>
+        <v>0.82769550719183582</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -579,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="0">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="Q3" s="0">
-        <v>1</v>
+        <v>0.71050147721608004</v>
       </c>
       <c r="R3" s="0">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="AF3" s="0">
-        <v>0</v>
+        <v>0.97314313878040815</v>
       </c>
       <c r="AG3" s="0">
         <v>0</v>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="AN3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="0">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="BO3" s="0">
-        <v>0</v>
+        <v>0.8097514383561516</v>
       </c>
       <c r="BP3" s="0">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.85846043453564458</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -764,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="0">
-        <v>0</v>
+        <v>0.91996540345000555</v>
       </c>
       <c r="H4" s="0">
         <v>0</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="0">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="0">
-        <v>0</v>
+        <v>0.68825743627035929</v>
       </c>
       <c r="AB4" s="0">
         <v>0</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="AS4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="0">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" s="0">
-        <v>0</v>
+        <v>0.7237715726984848</v>
       </c>
       <c r="BA4" s="0">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="AO5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="0">
-        <v>0</v>
+        <v>0.91535669772971295</v>
       </c>
       <c r="AQ5" s="0">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="0">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="BD5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" s="0">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="BI5" s="0">
-        <v>0</v>
+        <v>0.94160910628016459</v>
       </c>
       <c r="BJ5" s="0">
         <v>0</v>
@@ -1179,13 +1179,13 @@
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
       </c>
       <c r="J6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="0">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="0">
-        <v>0</v>
+        <v>0.96041825534299874</v>
       </c>
       <c r="R6" s="0">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="0">
-        <v>0</v>
+        <v>0.59743494189485813</v>
       </c>
       <c r="AG6" s="0">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="0">
-        <v>0</v>
+        <v>0.77437089250907654</v>
       </c>
       <c r="AM6" s="0">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="AX6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="0">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="BO6" s="0">
-        <v>0</v>
+        <v>0.65828531999407358</v>
       </c>
       <c r="BP6" s="0">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0</v>
+        <v>0.6230907189233762</v>
       </c>
       <c r="E7" s="0">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0</v>
+        <v>0.87454128829288724</v>
       </c>
       <c r="L7" s="0">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="0">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="0">
-        <v>0</v>
+        <v>0.54391525642274563</v>
       </c>
       <c r="AQ7" s="0">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="BP7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="L8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" s="0">
-        <v>0</v>
+        <v>0.7160596252039273</v>
       </c>
       <c r="N8" s="0">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="0">
-        <v>0</v>
+        <v>0.95763558672650317</v>
       </c>
       <c r="U8" s="0">
         <v>0</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="Y8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="0">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="AE8" s="0">
-        <v>0</v>
+        <v>0.84484135413989414</v>
       </c>
       <c r="AF8" s="0">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="AW8" s="0">
-        <v>0</v>
+        <v>0.73594622954740452</v>
       </c>
       <c r="AX8" s="0">
         <v>0</v>
@@ -1723,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA8" s="0">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="BJ8" s="0">
-        <v>0</v>
+        <v>0.96587720505470909</v>
       </c>
       <c r="BK8" s="0">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="B9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="AI9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="0">
         <v>0</v>
@@ -1926,13 +1926,13 @@
         <v>0</v>
       </c>
       <c r="AY9" s="0">
-        <v>0</v>
+        <v>0.93594069763242094</v>
       </c>
       <c r="AZ9" s="0">
         <v>0</v>
       </c>
       <c r="BA9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB9" s="0">
         <v>0</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="BJ9" s="0">
-        <v>0</v>
+        <v>0.82638949760060709</v>
       </c>
       <c r="BK9" s="0">
         <v>0</v>
@@ -1997,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10" s="0">
         <v>0</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="0">
-        <v>0</v>
+        <v>0.55101931676544069</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
@@ -2039,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" s="0">
         <v>0</v>
@@ -2051,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="X10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="0">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="AK10" s="0">
-        <v>0</v>
+        <v>0.97878732933645263</v>
       </c>
       <c r="AL10" s="0">
         <v>0</v>
@@ -2123,7 +2123,7 @@
         <v>0</v>
       </c>
       <c r="AV10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW10" s="0">
         <v>0</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="BG10" s="0">
-        <v>0</v>
+        <v>0.90314948637213643</v>
       </c>
       <c r="BH10" s="0">
         <v>0</v>
@@ -2174,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="BM10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="0">
         <v>0</v>
@@ -2197,7 +2197,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="0">
         <v>0</v>
@@ -2206,13 +2206,13 @@
         <v>0</v>
       </c>
       <c r="G11" s="0">
-        <v>0</v>
+        <v>0.97733832535052489</v>
       </c>
       <c r="H11" s="0">
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="0">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0</v>
+        <v>0.53850199613998884</v>
       </c>
       <c r="M11" s="0">
         <v>0</v>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="0">
         <v>0</v>
@@ -2308,10 +2308,10 @@
         <v>0</v>
       </c>
       <c r="AO11" s="0">
-        <v>0</v>
+        <v>0.62522361776050095</v>
       </c>
       <c r="AP11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ11" s="0">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="AU11" s="0">
-        <v>0</v>
+        <v>0.986433970751462</v>
       </c>
       <c r="AV11" s="0">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="0">
-        <v>0</v>
+        <v>0.52529876439235168</v>
       </c>
       <c r="BF11" s="0">
         <v>0</v>
@@ -2394,7 +2394,7 @@
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="0">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="0">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0</v>
+        <v>0.56316871960142745</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="0">
-        <v>0</v>
+        <v>0.94446911303719061</v>
       </c>
       <c r="X12" s="0">
         <v>0</v>
@@ -2547,7 +2547,7 @@
         <v>0</v>
       </c>
       <c r="AZ12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA12" s="0">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="BG12" s="0">
-        <v>0</v>
+        <v>0.71966284501725064</v>
       </c>
       <c r="BH12" s="0">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="0">
-        <v>0</v>
+        <v>0.65011268379599474</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="AC13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="0">
         <v>0</v>
@@ -2696,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="AG13" s="0">
-        <v>1</v>
+        <v>0.88979343393527743</v>
       </c>
       <c r="AH13" s="0">
         <v>0</v>
@@ -2717,7 +2717,7 @@
         <v>0</v>
       </c>
       <c r="AN13" s="0">
-        <v>0</v>
+        <v>0.66315064182835126</v>
       </c>
       <c r="AO13" s="0">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="BB13" s="0">
-        <v>0</v>
+        <v>0.83549269690603833</v>
       </c>
       <c r="BC13" s="0">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="BG13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH13" s="0">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="0">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>0</v>
+        <v>0.61196453017941443</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2863,13 +2863,13 @@
         <v>0</v>
       </c>
       <c r="T14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14" s="0">
         <v>0</v>
       </c>
       <c r="V14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="0">
         <v>0</v>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="0">
-        <v>0</v>
+        <v>0.67410735579095227</v>
       </c>
       <c r="AF14" s="0">
         <v>0</v>
@@ -2908,7 +2908,7 @@
         <v>0</v>
       </c>
       <c r="AI14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="0">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="BA14" s="0">
-        <v>0</v>
+        <v>0.85656405262986346</v>
       </c>
       <c r="BB14" s="0">
         <v>0</v>
@@ -3039,7 +3039,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="0">
-        <v>0</v>
+        <v>0.92056393294763139</v>
       </c>
       <c r="K15" s="0">
         <v>0</v>
@@ -3057,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>0</v>
+        <v>0.76371672995784934</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3084,7 +3084,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="0">
         <v>0</v>
@@ -3147,10 +3147,10 @@
         <v>0</v>
       </c>
       <c r="AT15" s="0">
-        <v>0</v>
+        <v>0.66084342650297834</v>
       </c>
       <c r="AU15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV15" s="0">
         <v>0</v>
@@ -3257,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0</v>
+        <v>0.54266009055495901</v>
       </c>
       <c r="O16" s="0">
-        <v>0</v>
+        <v>0.71374030797299648</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="AE16" s="0">
-        <v>0</v>
+        <v>0.7929045116171729</v>
       </c>
       <c r="AF16" s="0">
         <v>0</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="AK16" s="0">
-        <v>0</v>
+        <v>0.63168882032128471</v>
       </c>
       <c r="AL16" s="0">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="BG16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH16" s="0">
         <v>0</v>
@@ -3416,7 +3416,7 @@
         <v>0</v>
       </c>
       <c r="BO16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP16" s="0">
         <v>0</v>
@@ -3424,13 +3424,13 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0</v>
+        <v>0.50502240094920259</v>
       </c>
       <c r="B17" s="0">
         <v>0</v>
       </c>
       <c r="C17" s="0">
-        <v>1</v>
+        <v>0.67780252919731732</v>
       </c>
       <c r="D17" s="0">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="0">
-        <v>0</v>
+        <v>0.56000733783090362</v>
       </c>
       <c r="G17" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="0">
         <v>0</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="AF17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="0">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="0">
-        <v>0</v>
+        <v>0.64223572973404308</v>
       </c>
       <c r="AK17" s="0">
         <v>0</v>
@@ -3687,10 +3687,10 @@
         <v>0</v>
       </c>
       <c r="T18" s="0">
-        <v>0</v>
+        <v>0.96863416993816776</v>
       </c>
       <c r="U18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V18" s="0">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="0">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="0">
-        <v>0</v>
+        <v>0.84119408208393187</v>
       </c>
       <c r="AQ18" s="0">
         <v>0</v>
@@ -3783,7 +3783,7 @@
         <v>0</v>
       </c>
       <c r="AZ18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA18" s="0">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="BL18" s="0">
-        <v>0</v>
+        <v>0.74175181034226301</v>
       </c>
       <c r="BM18" s="0">
         <v>0</v>
@@ -3854,7 +3854,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="0">
         <v>0</v>
@@ -3893,10 +3893,10 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.74797839138536304</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="BG19" s="0">
-        <v>0</v>
+        <v>0.51120392936039738</v>
       </c>
       <c r="BH19" s="0">
         <v>0</v>
@@ -4063,13 +4063,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="0">
-        <v>0</v>
+        <v>0.98104143846168723</v>
       </c>
       <c r="I20" s="0">
         <v>0</v>
       </c>
       <c r="J20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="0">
         <v>0</v>
@@ -4081,7 +4081,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" s="0">
         <v>0</v>
@@ -4093,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0</v>
+        <v>0.73675031515711065</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.75850321451406777</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
@@ -4129,7 +4129,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="0">
-        <v>0</v>
+        <v>0.79060915024594136</v>
       </c>
       <c r="AE20" s="0">
         <v>0</v>
@@ -4159,7 +4159,7 @@
         <v>0</v>
       </c>
       <c r="AN20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="0">
         <v>0</v>
@@ -4177,19 +4177,19 @@
         <v>0</v>
       </c>
       <c r="AT20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU20" s="0">
         <v>0</v>
       </c>
       <c r="AV20" s="0">
-        <v>0</v>
+        <v>0.55951055861645194</v>
       </c>
       <c r="AW20" s="0">
         <v>0</v>
       </c>
       <c r="AX20" s="0">
-        <v>0</v>
+        <v>0.58831597123549573</v>
       </c>
       <c r="AY20" s="0">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="0">
-        <v>0</v>
+        <v>0.58243792398525607</v>
       </c>
       <c r="C21" s="0">
         <v>0</v>
@@ -4299,10 +4299,10 @@
         <v>0</v>
       </c>
       <c r="R21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
         <v>0</v>
@@ -4344,16 +4344,16 @@
         <v>0</v>
       </c>
       <c r="AG21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH21" s="0">
-        <v>0</v>
+        <v>0.6261643702429569</v>
       </c>
       <c r="AI21" s="0">
         <v>0</v>
       </c>
       <c r="AJ21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" s="0">
         <v>0</v>
@@ -4389,16 +4389,16 @@
         <v>0</v>
       </c>
       <c r="AV21" s="0">
-        <v>0</v>
+        <v>0.97077727315592177</v>
       </c>
       <c r="AW21" s="0">
         <v>0</v>
       </c>
       <c r="AX21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="0">
-        <v>0</v>
+        <v>0.96132575569374157</v>
       </c>
       <c r="AZ21" s="0">
         <v>0</v>
@@ -4419,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="BF21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG21" s="0">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" s="0">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
       <c r="AC22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22" s="0">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="0">
-        <v>0</v>
+        <v>0.72967674469824195</v>
       </c>
       <c r="AJ22" s="0">
         <v>0</v>
@@ -4574,7 +4574,7 @@
         <v>0</v>
       </c>
       <c r="AO22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22" s="0">
         <v>0</v>
@@ -4613,13 +4613,13 @@
         <v>0</v>
       </c>
       <c r="BB22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC22" s="0">
         <v>0</v>
       </c>
       <c r="BD22" s="0">
-        <v>0</v>
+        <v>0.61112567305438581</v>
       </c>
       <c r="BE22" s="0">
         <v>0</v>
@@ -4652,10 +4652,10 @@
         <v>0</v>
       </c>
       <c r="BO22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP22" s="0">
-        <v>0</v>
+        <v>0.88291211186740848</v>
       </c>
     </row>
     <row r="23">
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="0">
-        <v>0</v>
+        <v>0.93178244129329646</v>
       </c>
       <c r="M23" s="0">
         <v>0</v>
@@ -4729,10 +4729,10 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0</v>
+        <v>0.58142164461059709</v>
       </c>
       <c r="Y23" s="0">
-        <v>0</v>
+        <v>0.87402879997791616</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="AC23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="0">
         <v>0</v>
@@ -4804,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="AW23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX23" s="0">
         <v>0</v>
@@ -4855,13 +4855,13 @@
         <v>0</v>
       </c>
       <c r="BN23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO23" s="0">
         <v>0</v>
       </c>
       <c r="BP23" s="0">
-        <v>0</v>
+        <v>0.73070573176644016</v>
       </c>
     </row>
     <row r="24">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="0">
         <v>0</v>
@@ -4914,7 +4914,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24" s="0">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="0">
-        <v>0</v>
+        <v>0.99512949629723979</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
       <c r="AB24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" s="0">
         <v>0</v>
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="AN24" s="0">
-        <v>0</v>
+        <v>0.57387750425506179</v>
       </c>
       <c r="AO24" s="0">
         <v>0</v>
@@ -4995,10 +4995,10 @@
         <v>0</v>
       </c>
       <c r="AR24" s="0">
-        <v>0</v>
+        <v>0.55169364153017209</v>
       </c>
       <c r="AS24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="0">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="AZ24" s="0">
-        <v>0</v>
+        <v>0.56151501289234618</v>
       </c>
       <c r="BA24" s="0">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="BM24" s="0">
-        <v>0</v>
+        <v>0.53301845885565569</v>
       </c>
       <c r="BN24" s="0">
         <v>0</v>
@@ -5093,7 +5093,7 @@
         <v>0</v>
       </c>
       <c r="H25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" s="0">
         <v>0</v>
@@ -5114,7 +5114,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0</v>
+        <v>0.96321018654811796</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5147,7 +5147,7 @@
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
         <v>0</v>
@@ -5195,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="AP25" s="0">
-        <v>0</v>
+        <v>0.83993235903658336</v>
       </c>
       <c r="AQ25" s="0">
         <v>0</v>
@@ -5249,7 +5249,7 @@
         <v>0</v>
       </c>
       <c r="BH25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="0">
         <v>0</v>
@@ -5258,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="BK25" s="0">
-        <v>0</v>
+        <v>0.74872433504551572</v>
       </c>
       <c r="BL25" s="0">
         <v>0</v>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="0">
-        <v>0</v>
+        <v>0.54685883024436444</v>
       </c>
       <c r="C26" s="0">
         <v>0</v>
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5383,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="AJ26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK26" s="0">
         <v>0</v>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="AU26" s="0">
-        <v>0</v>
+        <v>0.82263984632643883</v>
       </c>
       <c r="AV26" s="0">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="BD26" s="0">
-        <v>0</v>
+        <v>0.81958796329847949</v>
       </c>
       <c r="BE26" s="0">
         <v>0</v>
@@ -5458,7 +5458,7 @@
         <v>0</v>
       </c>
       <c r="BI26" s="0">
-        <v>0</v>
+        <v>0.70362793629269649</v>
       </c>
       <c r="BJ26" s="0">
         <v>0</v>
@@ -5473,10 +5473,10 @@
         <v>0</v>
       </c>
       <c r="BN26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP26" s="0">
         <v>0</v>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="0">
-        <v>0</v>
+        <v>0.95624131368677678</v>
       </c>
       <c r="E27" s="0">
         <v>0</v>
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="AE27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="0">
         <v>0</v>
@@ -5655,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="BF27" s="0">
-        <v>0</v>
+        <v>0.73657183217983646</v>
       </c>
       <c r="BG27" s="0">
         <v>0</v>
@@ -5673,7 +5673,7 @@
         <v>0</v>
       </c>
       <c r="BL27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM27" s="0">
         <v>0</v>
@@ -5759,7 +5759,7 @@
         <v>0</v>
       </c>
       <c r="X28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="0">
         <v>0</v>
@@ -5801,10 +5801,10 @@
         <v>0</v>
       </c>
       <c r="AL28" s="0">
-        <v>0</v>
+        <v>0.69534111367062601</v>
       </c>
       <c r="AM28" s="0">
-        <v>0</v>
+        <v>0.85502805037546792</v>
       </c>
       <c r="AN28" s="0">
         <v>0</v>
@@ -5831,7 +5831,7 @@
         <v>0</v>
       </c>
       <c r="AV28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW28" s="0">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="AZ28" s="0">
-        <v>0</v>
+        <v>0.76949395255706432</v>
       </c>
       <c r="BA28" s="0">
         <v>0</v>
@@ -5879,10 +5879,10 @@
         <v>0</v>
       </c>
       <c r="BL28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM28" s="0">
-        <v>0</v>
+        <v>0.67787338988781087</v>
       </c>
       <c r="BN28" s="0">
         <v>0</v>
@@ -5932,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N29" s="0">
         <v>0</v>
@@ -5947,7 +5947,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S29" s="0">
         <v>0</v>
@@ -5959,10 +5959,10 @@
         <v>0</v>
       </c>
       <c r="V29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" s="0">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0</v>
+        <v>0.53807532275724546</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6007,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="AL29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" s="0">
         <v>0</v>
@@ -6040,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="AW29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX29" s="0">
         <v>0</v>
@@ -6082,13 +6082,13 @@
         <v>0</v>
       </c>
       <c r="BK29" s="0">
-        <v>0</v>
+        <v>0.9892437841870666</v>
       </c>
       <c r="BL29" s="0">
         <v>0</v>
       </c>
       <c r="BM29" s="0">
-        <v>0</v>
+        <v>0.83178409347645843</v>
       </c>
       <c r="BN29" s="0">
         <v>0</v>
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="0">
-        <v>0</v>
+        <v>0.77707960482195326</v>
       </c>
       <c r="U30" s="0">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="AC30" s="0">
-        <v>0</v>
+        <v>0.7017769188798435</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
@@ -6237,7 +6237,7 @@
         <v>0</v>
       </c>
       <c r="AT30" s="0">
-        <v>0</v>
+        <v>0.91447609513266204</v>
       </c>
       <c r="AU30" s="0">
         <v>0</v>
@@ -6255,7 +6255,7 @@
         <v>0</v>
       </c>
       <c r="AZ30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA30" s="0">
         <v>0</v>
@@ -6276,7 +6276,7 @@
         <v>0</v>
       </c>
       <c r="BG30" s="0">
-        <v>0</v>
+        <v>0.7455535113228895</v>
       </c>
       <c r="BH30" s="0">
         <v>0</v>
@@ -6285,7 +6285,7 @@
         <v>0</v>
       </c>
       <c r="BJ30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK30" s="0">
         <v>0</v>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="BN30" s="0">
-        <v>0</v>
+        <v>0.94190385960246448</v>
       </c>
       <c r="BO30" s="0">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="0">
-        <v>0</v>
+        <v>0.8259194027147585</v>
       </c>
       <c r="I31" s="0">
         <v>0</v>
@@ -6347,13 +6347,13 @@
         <v>0</v>
       </c>
       <c r="N31" s="0">
-        <v>0</v>
+        <v>0.84123385156182051</v>
       </c>
       <c r="O31" s="0">
         <v>0</v>
       </c>
       <c r="P31" s="0">
-        <v>0</v>
+        <v>0.75772101533689973</v>
       </c>
       <c r="Q31" s="0">
         <v>0</v>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
       <c r="AA31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="0">
         <v>0</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.91720939531140688</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6443,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="AT31" s="0">
-        <v>0</v>
+        <v>0.91775761464475503</v>
       </c>
       <c r="AU31" s="0">
         <v>0</v>
@@ -6476,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="BE31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF31" s="0">
         <v>0</v>
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="0">
-        <v>0</v>
+        <v>0.99346094166150523</v>
       </c>
       <c r="D32" s="0">
         <v>0</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="0">
-        <v>0</v>
+        <v>0.96118947075991423</v>
       </c>
       <c r="G32" s="0">
         <v>0</v>
@@ -6544,7 +6544,7 @@
         <v>0</v>
       </c>
       <c r="K32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" s="0">
         <v>0</v>
@@ -6562,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32" s="0">
         <v>0</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.60270861207755122</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6631,13 +6631,13 @@
         <v>0</v>
       </c>
       <c r="AN32" s="0">
-        <v>0</v>
+        <v>0.69149375102032751</v>
       </c>
       <c r="AO32" s="0">
-        <v>0</v>
+        <v>0.91642311344244576</v>
       </c>
       <c r="AP32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="0">
         <v>0</v>
@@ -6679,7 +6679,7 @@
         <v>0</v>
       </c>
       <c r="BD32" s="0">
-        <v>0</v>
+        <v>0.58387151579847674</v>
       </c>
       <c r="BE32" s="0">
         <v>0</v>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="BI32" s="0">
-        <v>0</v>
+        <v>0.68357406296865697</v>
       </c>
       <c r="BJ32" s="0">
         <v>0</v>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="BM32" s="0">
-        <v>0</v>
+        <v>0.71376902771306283</v>
       </c>
       <c r="BN32" s="0">
         <v>0</v>
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="0">
-        <v>1</v>
+        <v>0.70013782950009573</v>
       </c>
       <c r="N33" s="0">
         <v>0</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33" s="0">
         <v>0</v>
@@ -6780,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="U33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.70968407286125823</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6819,10 +6819,10 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0</v>
+        <v>0.77764774750568488</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6918,7 +6918,7 @@
         <v>0</v>
       </c>
       <c r="BO33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP33" s="0">
         <v>0</v>
@@ -6986,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="0">
-        <v>0</v>
+        <v>0.90229101017881574</v>
       </c>
       <c r="V34" s="0">
         <v>0</v>
@@ -7019,16 +7019,16 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.51513458647667743</v>
       </c>
       <c r="AG34" s="0">
-        <v>0</v>
+        <v>0.83518364656574606</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0.53310011799999391</v>
       </c>
       <c r="AJ34" s="0">
         <v>0</v>
@@ -7046,10 +7046,10 @@
         <v>0</v>
       </c>
       <c r="AO34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="0">
         <v>0</v>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="AU34" s="0">
-        <v>0</v>
+        <v>0.76725600422727314</v>
       </c>
       <c r="AV34" s="0">
         <v>0</v>
@@ -7156,7 +7156,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" s="0">
         <v>0</v>
@@ -7171,7 +7171,7 @@
         <v>0</v>
       </c>
       <c r="N35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" s="0">
         <v>0</v>
@@ -7195,7 +7195,7 @@
         <v>0</v>
       </c>
       <c r="V35" s="0">
-        <v>0</v>
+        <v>0.74752530568914444</v>
       </c>
       <c r="W35" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0.53094864367830397</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0</v>
+        <v>0.55629346755974607</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0.80983907394145049</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7264,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="AS35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT35" s="0">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="BC35" s="0">
-        <v>0</v>
+        <v>0.51204305014105245</v>
       </c>
       <c r="BD35" s="0">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="BN35" s="0">
-        <v>0</v>
+        <v>0.5492155898778297</v>
       </c>
       <c r="BO35" s="0">
         <v>0</v>
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="0">
-        <v>0</v>
+        <v>0.76553438120241424</v>
       </c>
       <c r="C36" s="0">
         <v>0</v>
@@ -7386,7 +7386,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="0">
-        <v>0</v>
+        <v>0.7383894207176912</v>
       </c>
       <c r="R36" s="0">
         <v>0</v>
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="U36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36" s="0">
         <v>0</v>
@@ -7413,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="Z36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="0">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>0</v>
+        <v>0.76925141699333177</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="BE36" s="0">
-        <v>0</v>
+        <v>0.50913852080230426</v>
       </c>
       <c r="BF36" s="0">
         <v>0</v>
@@ -7544,7 +7544,7 @@
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B37" s="0">
         <v>0</v>
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="0">
-        <v>0</v>
+        <v>0.83482519849252923</v>
       </c>
       <c r="K37" s="0">
         <v>0</v>
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="0">
-        <v>0</v>
+        <v>0.50535835513639804</v>
       </c>
       <c r="Q37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0.54674151770895096</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7667,7 +7667,7 @@
         <v>0</v>
       </c>
       <c r="AP37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ37" s="0">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="AY37" s="0">
-        <v>0</v>
+        <v>0.85890589856038302</v>
       </c>
       <c r="AZ37" s="0">
         <v>0</v>
@@ -7765,7 +7765,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="0">
-        <v>0</v>
+        <v>0.90195753494420594</v>
       </c>
       <c r="G38" s="0">
         <v>0</v>
@@ -7831,10 +7831,10 @@
         <v>0</v>
       </c>
       <c r="AB38" s="0">
-        <v>0</v>
+        <v>0.77593750368273695</v>
       </c>
       <c r="AC38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="0">
         <v>0</v>
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="0">
-        <v>0</v>
+        <v>0.58019019611065281</v>
       </c>
       <c r="AT38" s="0">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="BD38" s="0">
-        <v>0</v>
+        <v>0.84252464782051162</v>
       </c>
       <c r="BE38" s="0">
         <v>0</v>
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="BK38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL38" s="0">
         <v>0</v>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="0">
-        <v>0</v>
+        <v>0.61290505884174551</v>
       </c>
       <c r="AC39" s="0">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.63454499819766996</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
@@ -8127,10 +8127,10 @@
         <v>0</v>
       </c>
       <c r="BF39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH39" s="0">
         <v>0</v>
@@ -8168,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" s="0">
         <v>0</v>
@@ -8198,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="0">
-        <v>0</v>
+        <v>0.60984342362767385</v>
       </c>
       <c r="N40" s="0">
         <v>0</v>
@@ -8219,7 +8219,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40" s="0">
         <v>0</v>
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="X40" s="0">
-        <v>0</v>
+        <v>0.74797508894727338</v>
       </c>
       <c r="Y40" s="0">
         <v>0</v>
@@ -8255,7 +8255,7 @@
         <v>0</v>
       </c>
       <c r="AF40" s="0">
-        <v>0</v>
+        <v>0.77735959146615441</v>
       </c>
       <c r="AG40" s="0">
         <v>0</v>
@@ -8276,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.71388471627620798</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="AY40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ40" s="0">
         <v>0</v>
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="BL40" s="0">
-        <v>0</v>
+        <v>0.62799026088312948</v>
       </c>
       <c r="BM40" s="0">
         <v>0</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" s="0">
         <v>0</v>
@@ -8398,7 +8398,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="0">
-        <v>0</v>
+        <v>0.68281782383318113</v>
       </c>
       <c r="L41" s="0">
         <v>0</v>
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="V41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="0">
         <v>0</v>
@@ -8461,13 +8461,13 @@
         <v>0</v>
       </c>
       <c r="AF41" s="0">
-        <v>0</v>
+        <v>0.91369865320377053</v>
       </c>
       <c r="AG41" s="0">
         <v>0</v>
       </c>
       <c r="AH41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="0">
         <v>0</v>
@@ -8494,16 +8494,16 @@
         <v>0</v>
       </c>
       <c r="AQ41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="0">
-        <v>0</v>
+        <v>0.83847477336407372</v>
       </c>
       <c r="AS41" s="0">
         <v>0</v>
       </c>
       <c r="AT41" s="0">
-        <v>0</v>
+        <v>0.70533799894037286</v>
       </c>
       <c r="AU41" s="0">
         <v>0</v>
@@ -8586,13 +8586,13 @@
         <v>0</v>
       </c>
       <c r="E42" s="0">
-        <v>0</v>
+        <v>0.85843195646673931</v>
       </c>
       <c r="F42" s="0">
         <v>0</v>
       </c>
       <c r="G42" s="0">
-        <v>0</v>
+        <v>0.88629399433089517</v>
       </c>
       <c r="H42" s="0">
         <v>0</v>
@@ -8604,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L42" s="0">
         <v>0</v>
@@ -8625,7 +8625,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="0">
-        <v>0</v>
+        <v>0.9279182093929097</v>
       </c>
       <c r="S42" s="0">
         <v>0</v>
@@ -8646,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="0">
-        <v>0</v>
+        <v>0.67531307527278794</v>
       </c>
       <c r="Z42" s="0">
         <v>0</v>
@@ -8667,13 +8667,13 @@
         <v>0</v>
       </c>
       <c r="AF42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="0">
         <v>0</v>
       </c>
       <c r="AH42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI42" s="0">
         <v>0</v>
@@ -8682,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="AK42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL42" s="0">
         <v>0</v>
@@ -8700,7 +8700,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>0</v>
+        <v>0.66712564174407918</v>
       </c>
       <c r="AR42" s="0">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="AU42" s="0">
-        <v>0</v>
+        <v>0.54142358927670875</v>
       </c>
       <c r="AV42" s="0">
         <v>0</v>
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="AY42" s="0">
-        <v>0</v>
+        <v>0.72681798600082814</v>
       </c>
       <c r="AZ42" s="0">
         <v>0</v>
@@ -8745,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="BF42" s="0">
-        <v>0</v>
+        <v>0.58454124458755996</v>
       </c>
       <c r="BG42" s="0">
         <v>0</v>
@@ -8772,7 +8772,7 @@
         <v>0</v>
       </c>
       <c r="BO42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP42" s="0">
         <v>0</v>
@@ -8900,10 +8900,10 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>0</v>
+        <v>0.53365805969735447</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>0</v>
+        <v>0.76913657053340678</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8972,13 +8972,13 @@
         <v>0</v>
       </c>
       <c r="BM43" s="0">
-        <v>1</v>
+        <v>0.83054368136046075</v>
       </c>
       <c r="BN43" s="0">
         <v>0</v>
       </c>
       <c r="BO43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP43" s="0">
         <v>0</v>
@@ -9055,7 +9055,7 @@
         <v>0</v>
       </c>
       <c r="X44" s="0">
-        <v>0</v>
+        <v>0.98187361974690135</v>
       </c>
       <c r="Y44" s="0">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="AO44" s="0">
-        <v>0</v>
+        <v>0.63930874531820581</v>
       </c>
       <c r="AP44" s="0">
         <v>0</v>
@@ -9130,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="AW44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX44" s="0">
         <v>0</v>
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="BD44" s="0">
-        <v>0</v>
+        <v>0.90471439037334744</v>
       </c>
       <c r="BE44" s="0">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="BJ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK44" s="0">
         <v>0</v>
@@ -9201,10 +9201,10 @@
         <v>0</v>
       </c>
       <c r="D45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" s="0">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="0">
         <v>0</v>
@@ -9294,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="AI45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ45" s="0">
         <v>0</v>
@@ -9303,7 +9303,7 @@
         <v>0</v>
       </c>
       <c r="AL45" s="0">
-        <v>0</v>
+        <v>0.84427279293641067</v>
       </c>
       <c r="AM45" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0</v>
+        <v>0.59116482179487018</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9327,7 +9327,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0</v>
+        <v>0.92408625670377609</v>
       </c>
       <c r="AU45" s="0">
         <v>0</v>
@@ -9336,7 +9336,7 @@
         <v>0</v>
       </c>
       <c r="AW45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX45" s="0">
         <v>0</v>
@@ -9363,7 +9363,7 @@
         <v>0</v>
       </c>
       <c r="BF45" s="0">
-        <v>0</v>
+        <v>0.6940320518858718</v>
       </c>
       <c r="BG45" s="0">
         <v>0</v>
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="0">
-        <v>0</v>
+        <v>0.72389059466501915</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="T46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U46" s="0">
         <v>0</v>
@@ -9485,10 +9485,10 @@
         <v>0</v>
       </c>
       <c r="AD46" s="0">
-        <v>0</v>
+        <v>0.58430755559435821</v>
       </c>
       <c r="AE46" s="0">
-        <v>0</v>
+        <v>0.80702987068663901</v>
       </c>
       <c r="AF46" s="0">
         <v>0</v>
@@ -9518,7 +9518,7 @@
         <v>0</v>
       </c>
       <c r="AO46" s="0">
-        <v>0</v>
+        <v>0.82102347629459271</v>
       </c>
       <c r="AP46" s="0">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>0</v>
+        <v>0.75874552053311195</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9587,10 +9587,10 @@
         <v>0</v>
       </c>
       <c r="BL46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN46" s="0">
         <v>0</v>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="0">
-        <v>0</v>
+        <v>0.68570676579008616</v>
       </c>
       <c r="L47" s="0">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P47" s="0">
         <v>0</v>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="0">
-        <v>0</v>
+        <v>0.6315676139744939</v>
       </c>
       <c r="AA47" s="0">
         <v>0</v>
@@ -9703,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="AH47" s="0">
-        <v>0</v>
+        <v>0.66444977209475886</v>
       </c>
       <c r="AI47" s="0">
         <v>0</v>
@@ -9727,7 +9727,7 @@
         <v>0</v>
       </c>
       <c r="AP47" s="0">
-        <v>0</v>
+        <v>0.98630726843916972</v>
       </c>
       <c r="AQ47" s="0">
         <v>0</v>
@@ -9763,7 +9763,7 @@
         <v>0</v>
       </c>
       <c r="BB47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC47" s="0">
         <v>0</v>
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="BM47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN47" s="0">
         <v>0</v>
@@ -9837,7 +9837,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K48" s="0">
         <v>0</v>
@@ -9867,10 +9867,10 @@
         <v>0</v>
       </c>
       <c r="T48" s="0">
-        <v>0</v>
+        <v>0.74843357628414009</v>
       </c>
       <c r="U48" s="0">
-        <v>0</v>
+        <v>0.68215269385640831</v>
       </c>
       <c r="V48" s="0">
         <v>0</v>
@@ -9891,7 +9891,7 @@
         <v>0</v>
       </c>
       <c r="AB48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC48" s="0">
         <v>0</v>
@@ -9945,7 +9945,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="0">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0</v>
+        <v>0.78940147222004464</v>
       </c>
       <c r="AX48" s="0">
         <v>0</v>
@@ -10005,7 +10005,7 @@
         <v>0</v>
       </c>
       <c r="BN48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO48" s="0">
         <v>0</v>
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="0">
-        <v>0</v>
+        <v>0.66853788010538584</v>
       </c>
       <c r="I49" s="0">
         <v>0</v>
@@ -10082,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X49" s="0">
         <v>0</v>
@@ -10100,7 +10100,7 @@
         <v>0</v>
       </c>
       <c r="AC49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD49" s="0">
         <v>0</v>
@@ -10145,10 +10145,10 @@
         <v>0</v>
       </c>
       <c r="AR49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT49" s="0">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>0</v>
+        <v>0.68399244549881866</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10187,7 +10187,7 @@
         <v>0</v>
       </c>
       <c r="BF49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG49" s="0">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="BK49" s="0">
-        <v>0</v>
+        <v>0.61918747633695514</v>
       </c>
       <c r="BL49" s="0">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="BN49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO49" s="0">
         <v>0</v>
@@ -10237,7 +10237,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50" s="0">
         <v>0</v>
@@ -10279,10 +10279,10 @@
         <v>0</v>
       </c>
       <c r="T50" s="0">
-        <v>0</v>
+        <v>0.86230617209407945</v>
       </c>
       <c r="U50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="0">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0</v>
+        <v>0.76882411843368514</v>
       </c>
       <c r="AZ50" s="0">
         <v>0</v>
@@ -10387,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="BD50" s="0">
-        <v>0</v>
+        <v>0.75810404029671363</v>
       </c>
       <c r="BE50" s="0">
         <v>0</v>
@@ -10408,7 +10408,7 @@
         <v>0</v>
       </c>
       <c r="BK50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL50" s="0">
         <v>0</v>
@@ -10431,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="B51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C51" s="0">
         <v>0</v>
@@ -10452,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="0">
-        <v>0</v>
+        <v>0.77612726923098685</v>
       </c>
       <c r="J51" s="0">
         <v>0</v>
@@ -10488,7 +10488,7 @@
         <v>0</v>
       </c>
       <c r="U51" s="0">
-        <v>0</v>
+        <v>0.55097844512227168</v>
       </c>
       <c r="V51" s="0">
         <v>0</v>
@@ -10536,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="AK51" s="0">
-        <v>0</v>
+        <v>0.87171417002417551</v>
       </c>
       <c r="AL51" s="0">
         <v>0</v>
@@ -10545,13 +10545,13 @@
         <v>0</v>
       </c>
       <c r="AN51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO51" s="0">
         <v>0</v>
       </c>
       <c r="AP51" s="0">
-        <v>0</v>
+        <v>0.83650955003131977</v>
       </c>
       <c r="AQ51" s="0">
         <v>0</v>
@@ -10572,10 +10572,10 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>0</v>
+        <v>0.64980501951512737</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10608,7 +10608,7 @@
         <v>0</v>
       </c>
       <c r="BI51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ51" s="0">
         <v>0</v>
@@ -10637,13 +10637,13 @@
         <v>0</v>
       </c>
       <c r="B52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" s="0">
         <v>0</v>
       </c>
       <c r="D52" s="0">
-        <v>0</v>
+        <v>0.78363650572027732</v>
       </c>
       <c r="E52" s="0">
         <v>0</v>
@@ -10655,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="H52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" s="0">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>0</v>
       </c>
       <c r="L52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M52" s="0">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="R52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S52" s="0">
         <v>0</v>
@@ -10703,7 +10703,7 @@
         <v>0</v>
       </c>
       <c r="X52" s="0">
-        <v>0</v>
+        <v>0.85021946561547734</v>
       </c>
       <c r="Y52" s="0">
         <v>0</v>
@@ -10715,13 +10715,13 @@
         <v>0</v>
       </c>
       <c r="AB52" s="0">
-        <v>0</v>
+        <v>0.69370598292981123</v>
       </c>
       <c r="AC52" s="0">
         <v>0</v>
       </c>
       <c r="AD52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE52" s="0">
         <v>0</v>
@@ -10793,7 +10793,7 @@
         <v>0</v>
       </c>
       <c r="BB52" s="0">
-        <v>0</v>
+        <v>0.89017248639099189</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10817,7 +10817,7 @@
         <v>0</v>
       </c>
       <c r="BJ52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK52" s="0">
         <v>0</v>
@@ -10864,7 +10864,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" s="0">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="0">
-        <v>0</v>
+        <v>0.72872998921885701</v>
       </c>
       <c r="O53" s="0">
         <v>0</v>
@@ -10990,7 +10990,7 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ53" s="0">
         <v>0</v>
@@ -10999,10 +10999,10 @@
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>0</v>
+        <v>0.763095067398607</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11032,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="BM53" s="0">
-        <v>0</v>
+        <v>0.77334127701109423</v>
       </c>
       <c r="BN53" s="0">
         <v>0</v>
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="0">
-        <v>0</v>
+        <v>0.88109939199519238</v>
       </c>
       <c r="N54" s="0">
         <v>0</v>
@@ -11109,7 +11109,7 @@
         <v>0</v>
       </c>
       <c r="V54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54" s="0">
         <v>0</v>
@@ -11184,7 +11184,7 @@
         <v>0</v>
       </c>
       <c r="AU54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV54" s="0">
         <v>0</v>
@@ -11199,10 +11199,10 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0</v>
+        <v>0.73766561799065311</v>
       </c>
       <c r="BA54" s="0">
-        <v>0</v>
+        <v>0.61764172574042386</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11223,13 +11223,13 @@
         <v>0</v>
       </c>
       <c r="BH54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI54" s="0">
         <v>0</v>
       </c>
       <c r="BJ54" s="0">
-        <v>0</v>
+        <v>0.97536010511499938</v>
       </c>
       <c r="BK54" s="0">
         <v>0</v>
@@ -11354,7 +11354,7 @@
         <v>0</v>
       </c>
       <c r="AI55" s="0">
-        <v>0</v>
+        <v>0.51251752621853797</v>
       </c>
       <c r="AJ55" s="0">
         <v>0</v>
@@ -11408,7 +11408,7 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="0">
         <v>0</v>
@@ -11417,7 +11417,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="0">
         <v>0</v>
@@ -11432,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="BI55" s="0">
-        <v>1</v>
+        <v>0.66989265301296208</v>
       </c>
       <c r="BJ55" s="0">
         <v>0</v>
@@ -11470,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" s="0">
         <v>0</v>
@@ -11521,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="V56" s="0">
-        <v>0</v>
+        <v>0.5837817242283192</v>
       </c>
       <c r="W56" s="0">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="Z56" s="0">
-        <v>0</v>
+        <v>0.86545548498815483</v>
       </c>
       <c r="AA56" s="0">
         <v>0</v>
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="AF56" s="0">
-        <v>0</v>
+        <v>0.54539584105351202</v>
       </c>
       <c r="AG56" s="0">
         <v>0</v>
@@ -11569,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="AL56" s="0">
-        <v>0</v>
+        <v>0.84058728786453984</v>
       </c>
       <c r="AM56" s="0">
         <v>0</v>
@@ -11587,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="AR56" s="0">
-        <v>0</v>
+        <v>0.80529458829956324</v>
       </c>
       <c r="AS56" s="0">
         <v>0</v>
@@ -11605,7 +11605,7 @@
         <v>0</v>
       </c>
       <c r="AX56" s="0">
-        <v>0</v>
+        <v>0.86204103573717883</v>
       </c>
       <c r="AY56" s="0">
         <v>0</v>
@@ -11617,16 +11617,16 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="0">
         <v>0</v>
@@ -11635,7 +11635,7 @@
         <v>0</v>
       </c>
       <c r="BH56" s="0">
-        <v>0</v>
+        <v>0.68869794839021781</v>
       </c>
       <c r="BI56" s="0">
         <v>0</v>
@@ -11653,7 +11653,7 @@
         <v>0</v>
       </c>
       <c r="BN56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO56" s="0">
         <v>0</v>
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="0">
-        <v>0</v>
+        <v>0.78361034451969913</v>
       </c>
       <c r="L57" s="0">
         <v>0</v>
@@ -11754,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="AE57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF57" s="0">
         <v>0</v>
@@ -11769,7 +11769,7 @@
         <v>0</v>
       </c>
       <c r="AJ57" s="0">
-        <v>0</v>
+        <v>0.63621735348524355</v>
       </c>
       <c r="AK57" s="0">
         <v>0</v>
@@ -11829,16 +11829,16 @@
         <v>0</v>
       </c>
       <c r="BD57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.95332188050478739</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11930,7 +11930,7 @@
         <v>0</v>
       </c>
       <c r="U58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V58" s="0">
         <v>0</v>
@@ -11948,7 +11948,7 @@
         <v>0</v>
       </c>
       <c r="AA58" s="0">
-        <v>0</v>
+        <v>0.63055375083333742</v>
       </c>
       <c r="AB58" s="0">
         <v>0</v>
@@ -11984,7 +11984,7 @@
         <v>0</v>
       </c>
       <c r="AM58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN58" s="0">
         <v>0</v>
@@ -11993,7 +11993,7 @@
         <v>0</v>
       </c>
       <c r="AP58" s="0">
-        <v>0</v>
+        <v>0.58692093506263066</v>
       </c>
       <c r="AQ58" s="0">
         <v>0</v>
@@ -12002,7 +12002,7 @@
         <v>0</v>
       </c>
       <c r="AS58" s="0">
-        <v>0</v>
+        <v>0.90866444338378338</v>
       </c>
       <c r="AT58" s="0">
         <v>0</v>
@@ -12014,7 +12014,7 @@
         <v>0</v>
       </c>
       <c r="AW58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX58" s="0">
         <v>0</v>
@@ -12038,13 +12038,13 @@
         <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12076,7 +12076,7 @@
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>0</v>
+        <v>0.92366547855938763</v>
       </c>
       <c r="B59" s="0">
         <v>0</v>
@@ -12103,16 +12103,16 @@
         <v>0</v>
       </c>
       <c r="J59" s="0">
-        <v>0</v>
+        <v>0.96437787314708767</v>
       </c>
       <c r="K59" s="0">
         <v>0</v>
       </c>
       <c r="L59" s="0">
-        <v>0</v>
+        <v>0.93569292504475887</v>
       </c>
       <c r="M59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" s="0">
         <v>0</v>
@@ -12121,7 +12121,7 @@
         <v>0</v>
       </c>
       <c r="P59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="0">
         <v>0</v>
@@ -12130,7 +12130,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="0">
-        <v>0</v>
+        <v>0.56015209918699849</v>
       </c>
       <c r="T59" s="0">
         <v>0</v>
@@ -12163,7 +12163,7 @@
         <v>0</v>
       </c>
       <c r="AD59" s="0">
-        <v>0</v>
+        <v>0.64356062093337552</v>
       </c>
       <c r="AE59" s="0">
         <v>0</v>
@@ -12190,7 +12190,7 @@
         <v>0</v>
       </c>
       <c r="AM59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN59" s="0">
         <v>0</v>
@@ -12244,16 +12244,16 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.60539162566849924</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI59" s="0">
         <v>0</v>
@@ -12265,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="BL59" s="0">
-        <v>0</v>
+        <v>0.51954165952787645</v>
       </c>
       <c r="BM59" s="0">
         <v>0</v>
@@ -12277,7 +12277,7 @@
         <v>0</v>
       </c>
       <c r="BP59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -12354,7 +12354,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="0">
         <v>0</v>
@@ -12441,13 +12441,13 @@
         <v>0</v>
       </c>
       <c r="BB60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC60" s="0">
         <v>0</v>
       </c>
       <c r="BD60" s="0">
-        <v>0</v>
+        <v>0.6666030641993248</v>
       </c>
       <c r="BE60" s="0">
         <v>0</v>
@@ -12456,7 +12456,7 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
@@ -12468,7 +12468,7 @@
         <v>0</v>
       </c>
       <c r="BK60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL60" s="0">
         <v>0</v>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="BO60" s="0">
-        <v>0</v>
+        <v>0.60258082730536477</v>
       </c>
       <c r="BP60" s="0">
         <v>0</v>
@@ -12500,7 +12500,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="0">
-        <v>0</v>
+        <v>0.60885002634728447</v>
       </c>
       <c r="F61" s="0">
         <v>0</v>
@@ -12563,7 +12563,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="0">
-        <v>0</v>
+        <v>0.637332853944655</v>
       </c>
       <c r="AA61" s="0">
         <v>0</v>
@@ -12581,7 +12581,7 @@
         <v>0</v>
       </c>
       <c r="AF61" s="0">
-        <v>0</v>
+        <v>0.76704281852233247</v>
       </c>
       <c r="AG61" s="0">
         <v>0</v>
@@ -12638,7 +12638,7 @@
         <v>0</v>
       </c>
       <c r="AY61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ61" s="0">
         <v>0</v>
@@ -12650,7 +12650,7 @@
         <v>0</v>
       </c>
       <c r="BC61" s="0">
-        <v>1</v>
+        <v>0.98495794824274641</v>
       </c>
       <c r="BD61" s="0">
         <v>0</v>
@@ -12671,13 +12671,13 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK61" s="0">
         <v>0</v>
       </c>
       <c r="BL61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM61" s="0">
         <v>0</v>
@@ -12715,10 +12715,10 @@
         <v>0</v>
       </c>
       <c r="H62" s="0">
-        <v>0</v>
+        <v>0.54277723959691815</v>
       </c>
       <c r="I62" s="0">
-        <v>0</v>
+        <v>0.50922979176251326</v>
       </c>
       <c r="J62" s="0">
         <v>0</v>
@@ -12781,7 +12781,7 @@
         <v>0</v>
       </c>
       <c r="AD62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="0">
         <v>0</v>
@@ -12823,7 +12823,7 @@
         <v>0</v>
       </c>
       <c r="AR62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS62" s="0">
         <v>0</v>
@@ -12847,13 +12847,13 @@
         <v>0</v>
       </c>
       <c r="AZ62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA62" s="0">
         <v>0</v>
       </c>
       <c r="BB62" s="0">
-        <v>0</v>
+        <v>0.63116407267644459</v>
       </c>
       <c r="BC62" s="0">
         <v>0</v>
@@ -12874,7 +12874,7 @@
         <v>0</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0</v>
+        <v>0.77294587105254098</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12972,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="Y63" s="0">
-        <v>0</v>
+        <v>0.54232084618324183</v>
       </c>
       <c r="Z63" s="0">
         <v>0</v>
@@ -12984,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="0">
-        <v>0</v>
+        <v>0.78110657837826114</v>
       </c>
       <c r="AD63" s="0">
         <v>0</v>
@@ -13011,7 +13011,7 @@
         <v>0</v>
       </c>
       <c r="AL63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63" s="0">
         <v>0</v>
@@ -13044,10 +13044,10 @@
         <v>0</v>
       </c>
       <c r="AW63" s="0">
-        <v>0</v>
+        <v>0.95950728811401897</v>
       </c>
       <c r="AX63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY63" s="0">
         <v>0</v>
@@ -13077,7 +13077,7 @@
         <v>0</v>
       </c>
       <c r="BH63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI63" s="0">
         <v>0</v>
@@ -13089,10 +13089,10 @@
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.87528871045126944</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13157,7 +13157,7 @@
         <v>0</v>
       </c>
       <c r="R64" s="0">
-        <v>0</v>
+        <v>0.99089863711636073</v>
       </c>
       <c r="S64" s="0">
         <v>0</v>
@@ -13184,10 +13184,10 @@
         <v>0</v>
       </c>
       <c r="AA64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC64" s="0">
         <v>0</v>
@@ -13223,7 +13223,7 @@
         <v>0</v>
       </c>
       <c r="AN64" s="0">
-        <v>0</v>
+        <v>0.73283697350244292</v>
       </c>
       <c r="AO64" s="0">
         <v>0</v>
@@ -13241,7 +13241,7 @@
         <v>0</v>
       </c>
       <c r="AT64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU64" s="0">
         <v>0</v>
@@ -13280,19 +13280,19 @@
         <v>0</v>
       </c>
       <c r="BG64" s="0">
-        <v>0</v>
+        <v>0.75375268145255725</v>
       </c>
       <c r="BH64" s="0">
         <v>0</v>
       </c>
       <c r="BI64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>0</v>
+        <v>0.81900379409089386</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.61397120207759404</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13339,7 +13339,7 @@
         <v>0</v>
       </c>
       <c r="J65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K65" s="0">
         <v>0</v>
@@ -13381,7 +13381,7 @@
         <v>0</v>
       </c>
       <c r="X65" s="0">
-        <v>0</v>
+        <v>0.79310413161057902</v>
       </c>
       <c r="Y65" s="0">
         <v>0</v>
@@ -13393,10 +13393,10 @@
         <v>0</v>
       </c>
       <c r="AB65" s="0">
-        <v>0</v>
+        <v>0.94007560260208056</v>
       </c>
       <c r="AC65" s="0">
-        <v>0</v>
+        <v>0.7271800221030833</v>
       </c>
       <c r="AD65" s="0">
         <v>0</v>
@@ -13405,7 +13405,7 @@
         <v>0</v>
       </c>
       <c r="AF65" s="0">
-        <v>0</v>
+        <v>0.88292130777579103</v>
       </c>
       <c r="AG65" s="0">
         <v>0</v>
@@ -13438,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="0">
-        <v>1</v>
+        <v>0.52640386318208843</v>
       </c>
       <c r="AR65" s="0">
         <v>0</v>
@@ -13447,10 +13447,10 @@
         <v>0</v>
       </c>
       <c r="AT65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV65" s="0">
         <v>0</v>
@@ -13468,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="BA65" s="0">
-        <v>0</v>
+        <v>0.52251185265800482</v>
       </c>
       <c r="BB65" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0</v>
+        <v>0.95970596119062557</v>
       </c>
       <c r="BO65" s="0">
         <v>0</v>
@@ -13584,7 +13584,7 @@
         <v>0</v>
       </c>
       <c r="W66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X66" s="0">
         <v>0</v>
@@ -13593,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="Z66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA66" s="0">
         <v>0</v>
@@ -13605,7 +13605,7 @@
         <v>0</v>
       </c>
       <c r="AD66" s="0">
-        <v>0</v>
+        <v>0.99135751514095571</v>
       </c>
       <c r="AE66" s="0">
         <v>0</v>
@@ -13620,7 +13620,7 @@
         <v>0</v>
       </c>
       <c r="AI66" s="0">
-        <v>0</v>
+        <v>0.65349715115306894</v>
       </c>
       <c r="AJ66" s="0">
         <v>0</v>
@@ -13659,10 +13659,10 @@
         <v>0</v>
       </c>
       <c r="AV66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX66" s="0">
         <v>0</v>
@@ -13683,7 +13683,7 @@
         <v>0</v>
       </c>
       <c r="BD66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE66" s="0">
         <v>0</v>
@@ -13707,10 +13707,10 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>0</v>
+        <v>0.8184779328696915</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13724,13 +13724,13 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
       </c>
       <c r="C67" s="0">
-        <v>0</v>
+        <v>0.73800053567798951</v>
       </c>
       <c r="D67" s="0">
         <v>0</v>
@@ -13739,7 +13739,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="0">
-        <v>0</v>
+        <v>0.94765378721305915</v>
       </c>
       <c r="G67" s="0">
         <v>0</v>
@@ -13769,7 +13769,7 @@
         <v>0</v>
       </c>
       <c r="P67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="0">
         <v>0</v>
@@ -13787,7 +13787,7 @@
         <v>0</v>
       </c>
       <c r="V67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W67" s="0">
         <v>0</v>
@@ -13799,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="Z67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA67" s="0">
         <v>0</v>
@@ -13820,7 +13820,7 @@
         <v>0</v>
       </c>
       <c r="AG67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH67" s="0">
         <v>0</v>
@@ -13847,10 +13847,10 @@
         <v>0</v>
       </c>
       <c r="AP67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR67" s="0">
         <v>0</v>
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="BH67" s="0">
-        <v>0</v>
+        <v>0.69076848483098963</v>
       </c>
       <c r="BI67" s="0">
         <v>0</v>
@@ -13925,12 +13925,12 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0</v>
+        <v>0.50331600642896923</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.94136299443525551</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -13948,7 +13948,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="0">
         <v>0</v>
@@ -13993,10 +13993,10 @@
         <v>0</v>
       </c>
       <c r="V68" s="0">
-        <v>0</v>
+        <v>0.54708756859160723</v>
       </c>
       <c r="W68" s="0">
-        <v>0</v>
+        <v>0.92030592716104409</v>
       </c>
       <c r="X68" s="0">
         <v>0</v>
@@ -14104,7 +14104,7 @@
         <v>0</v>
       </c>
       <c r="BG68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0</v>
+        <v>0.81778621955286801</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject41.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName2/subject41.xlsx
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.58391580467085413</v>
+        <v>0.90395111555213448</v>
       </c>
       <c r="C1" s="0">
-        <v>0.87436570760110877</v>
+        <v>0.89433092749097365</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -302,7 +302,7 @@
         <v>0</v>
       </c>
       <c r="BG1" s="0">
-        <v>0.67644471671414164</v>
+        <v>0.92366547855938763</v>
       </c>
       <c r="BH1" s="0">
         <v>0</v>
@@ -329,7 +329,7 @@
         <v>0</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.55773649762779853</v>
+        <v>0.94136299443525551</v>
       </c>
     </row>
     <row r="2">
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.82769550719183582</v>
+        <v>0.85846043453564458</v>
       </c>
       <c r="E3" s="0">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="AF3" s="0">
-        <v>0.97314313878040815</v>
+        <v>0.99346094166150523</v>
       </c>
       <c r="AG3" s="0">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="0">
-        <v>0.68825743627035929</v>
+        <v>0.95624131368677678</v>
       </c>
       <c r="AB4" s="0">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="AZ4" s="0">
-        <v>0.7237715726984848</v>
+        <v>0.78363650572027732</v>
       </c>
       <c r="BA4" s="0">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="AF6" s="0">
-        <v>0.59743494189485813</v>
+        <v>0.96118947075991423</v>
       </c>
       <c r="AG6" s="0">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="0">
-        <v>0.77437089250907654</v>
+        <v>0.90195753494420594</v>
       </c>
       <c r="AM6" s="0">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="BO6" s="0">
-        <v>0.65828531999407358</v>
+        <v>0.94765378721305915</v>
       </c>
       <c r="BP6" s="0">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.6230907189233762</v>
+        <v>0.91996540345000555</v>
       </c>
       <c r="E7" s="0">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>0.87454128829288724</v>
+        <v>0.97733832535052489</v>
       </c>
       <c r="L7" s="0">
         <v>0</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="AP7" s="0">
-        <v>0.54391525642274563</v>
+        <v>0.88629399433089517</v>
       </c>
       <c r="AQ7" s="0">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="0">
-        <v>0.95763558672650317</v>
+        <v>0.98104143846168723</v>
       </c>
       <c r="U8" s="0">
         <v>0</v>
@@ -2024,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="0">
-        <v>0.55101931676544069</v>
+        <v>0.92056393294763139</v>
       </c>
       <c r="P10" s="0">
         <v>0</v>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="BG10" s="0">
-        <v>0.90314948637213643</v>
+        <v>0.96437787314708767</v>
       </c>
       <c r="BH10" s="0">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0.53850199613998884</v>
+        <v>0.56316871960142745</v>
       </c>
       <c r="M11" s="0">
         <v>0</v>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="AO11" s="0">
-        <v>0.62522361776050095</v>
+        <v>0.68281782383318113</v>
       </c>
       <c r="AP11" s="0">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="0">
-        <v>0.52529876439235168</v>
+        <v>0.78361034451969913</v>
       </c>
       <c r="BF11" s="0">
         <v>0</v>
@@ -2568,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="BG12" s="0">
-        <v>0.71966284501725064</v>
+        <v>0.93569292504475887</v>
       </c>
       <c r="BH12" s="0">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="0">
-        <v>0.65011268379599474</v>
+        <v>0.7160596252039273</v>
       </c>
       <c r="I13" s="0">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="BB13" s="0">
-        <v>0.83549269690603833</v>
+        <v>0.88109939199519238</v>
       </c>
       <c r="BC13" s="0">
         <v>0</v>
@@ -2896,7 +2896,7 @@
         <v>0</v>
       </c>
       <c r="AE14" s="0">
-        <v>0.67410735579095227</v>
+        <v>0.84123385156182051</v>
       </c>
       <c r="AF14" s="0">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="AT15" s="0">
-        <v>0.66084342650297834</v>
+        <v>0.72389059466501915</v>
       </c>
       <c r="AU15" s="0">
         <v>0</v>
@@ -3257,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0.54266009055495901</v>
+        <v>0.61196453017941443</v>
       </c>
       <c r="O16" s="0">
-        <v>0.71374030797299648</v>
+        <v>0.76371672995784934</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3424,13 +3424,13 @@
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.50502240094920259</v>
+        <v>0.56737302934751732</v>
       </c>
       <c r="B17" s="0">
         <v>0</v>
       </c>
       <c r="C17" s="0">
-        <v>0.67780252919731732</v>
+        <v>0.71050147721608004</v>
       </c>
       <c r="D17" s="0">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="0">
-        <v>0.56000733783090362</v>
+        <v>0.96041825534299874</v>
       </c>
       <c r="G17" s="0">
         <v>0</v>
@@ -3529,7 +3529,7 @@
         <v>0</v>
       </c>
       <c r="AJ17" s="0">
-        <v>0.64223572973404308</v>
+        <v>0.7383894207176912</v>
       </c>
       <c r="AK17" s="0">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="0">
-        <v>0.84119408208393187</v>
+        <v>0.9279182093929097</v>
       </c>
       <c r="AQ18" s="0">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="BL18" s="0">
-        <v>0.74175181034226301</v>
+        <v>0.99089863711636073</v>
       </c>
       <c r="BM18" s="0">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>0.74797839138536304</v>
+        <v>0.75850321451406777</v>
       </c>
       <c r="U19" s="0">
         <v>0</v>
@@ -4010,7 +4010,7 @@
         <v>0</v>
       </c>
       <c r="BG19" s="0">
-        <v>0.51120392936039738</v>
+        <v>0.56015209918699849</v>
       </c>
       <c r="BH19" s="0">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>0.73675031515711065</v>
+        <v>0.96863416993816776</v>
       </c>
       <c r="S20" s="0">
         <v>0.75850321451406777</v>
@@ -4183,13 +4183,13 @@
         <v>0</v>
       </c>
       <c r="AV20" s="0">
-        <v>0.55951055861645194</v>
+        <v>0.74843357628414009</v>
       </c>
       <c r="AW20" s="0">
         <v>0</v>
       </c>
       <c r="AX20" s="0">
-        <v>0.58831597123549573</v>
+        <v>0.86230617209407945</v>
       </c>
       <c r="AY20" s="0">
         <v>0</v>
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="B21" s="0">
-        <v>0.58243792398525607</v>
+        <v>0.67419150664314764</v>
       </c>
       <c r="C21" s="0">
         <v>0</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="AH21" s="0">
-        <v>0.6261643702429569</v>
+        <v>0.90229101017881574</v>
       </c>
       <c r="AI21" s="0">
         <v>0</v>
@@ -4556,7 +4556,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="0">
-        <v>0.72967674469824195</v>
+        <v>0.74752530568914444</v>
       </c>
       <c r="AJ22" s="0">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="L23" s="0">
-        <v>0.93178244129329646</v>
+        <v>0.94446911303719061</v>
       </c>
       <c r="M23" s="0">
         <v>0</v>
@@ -4729,10 +4729,10 @@
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>0.58142164461059709</v>
+        <v>0.99512949629723979</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.87402879997791616</v>
+        <v>0.96321018654811796</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="BP23" s="0">
-        <v>0.73070573176644016</v>
+        <v>0.92030592716104409</v>
       </c>
     </row>
     <row r="24">
@@ -4983,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="AN24" s="0">
-        <v>0.57387750425506179</v>
+        <v>0.74797508894727338</v>
       </c>
       <c r="AO24" s="0">
         <v>0</v>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="AR24" s="0">
-        <v>0.55169364153017209</v>
+        <v>0.98187361974690135</v>
       </c>
       <c r="AS24" s="0">
         <v>0</v>
@@ -5019,7 +5019,7 @@
         <v>0</v>
       </c>
       <c r="AZ24" s="0">
-        <v>0.56151501289234618</v>
+        <v>0.85021946561547734</v>
       </c>
       <c r="BA24" s="0">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="BM24" s="0">
-        <v>0.53301845885565569</v>
+        <v>0.79310413161057902</v>
       </c>
       <c r="BN24" s="0">
         <v>0</v>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="B26" s="0">
-        <v>0.54685883024436444</v>
+        <v>0.58276886665118011</v>
       </c>
       <c r="C26" s="0">
         <v>0</v>
@@ -5443,7 +5443,7 @@
         <v>0</v>
       </c>
       <c r="BD26" s="0">
-        <v>0.81958796329847949</v>
+        <v>0.86545548498815483</v>
       </c>
       <c r="BE26" s="0">
         <v>0</v>
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="0">
-        <v>0.69534111367062601</v>
+        <v>0.77593750368273695</v>
       </c>
       <c r="AM28" s="0">
         <v>0.85502805037546792</v>
@@ -5882,7 +5882,7 @@
         <v>0</v>
       </c>
       <c r="BM28" s="0">
-        <v>0.67787338988781087</v>
+        <v>0.94007560260208056</v>
       </c>
       <c r="BN28" s="0">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.53807532275724546</v>
+        <v>0.7017769188798435</v>
       </c>
       <c r="AE29" s="0">
         <v>0</v>
@@ -6159,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="0">
-        <v>0.77707960482195326</v>
+        <v>0.79060915024594136</v>
       </c>
       <c r="U30" s="0">
         <v>0</v>
@@ -6297,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="BN30" s="0">
-        <v>0.94190385960246448</v>
+        <v>0.99135751514095571</v>
       </c>
       <c r="BO30" s="0">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="H31" s="0">
-        <v>0.8259194027147585</v>
+        <v>0.84484135413989414</v>
       </c>
       <c r="I31" s="0">
         <v>0</v>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="0">
-        <v>0.75772101533689973</v>
+        <v>0.7929045116171729</v>
       </c>
       <c r="Q31" s="0">
         <v>0</v>
@@ -6631,7 +6631,7 @@
         <v>0</v>
       </c>
       <c r="AN32" s="0">
-        <v>0.69149375102032751</v>
+        <v>0.77735959146615441</v>
       </c>
       <c r="AO32" s="0">
         <v>0.91642311344244576</v>
@@ -6694,7 +6694,7 @@
         <v>0</v>
       </c>
       <c r="BI32" s="0">
-        <v>0.68357406296865697</v>
+        <v>0.76704281852233247</v>
       </c>
       <c r="BJ32" s="0">
         <v>0</v>
@@ -6706,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="BM32" s="0">
-        <v>0.71376902771306283</v>
+        <v>0.88292130777579103</v>
       </c>
       <c r="BN32" s="0">
         <v>0</v>
@@ -6756,7 +6756,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="0">
-        <v>0.70013782950009573</v>
+        <v>0.88979343393527743</v>
       </c>
       <c r="N33" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0.70968407286125823</v>
+        <v>0.91720939531140688</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6819,7 +6819,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0.77764774750568488</v>
+        <v>0.83518364656574606</v>
       </c>
       <c r="AI33" s="0">
         <v>0</v>
@@ -7019,7 +7019,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.51513458647667743</v>
+        <v>0.60270861207755122</v>
       </c>
       <c r="AG34" s="0">
         <v>0.83518364656574606</v>
@@ -7231,13 +7231,13 @@
         <v>0</v>
       </c>
       <c r="AH35" s="0">
-        <v>0.53094864367830397</v>
+        <v>0.53310011799999391</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0.55629346755974607</v>
+        <v>0.76925141699333177</v>
       </c>
       <c r="AK35" s="0">
         <v>0.80983907394145049</v>
@@ -7294,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="BC35" s="0">
-        <v>0.51204305014105245</v>
+        <v>0.51251752621853797</v>
       </c>
       <c r="BD35" s="0">
         <v>0</v>
@@ -7327,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="BN35" s="0">
-        <v>0.5492155898778297</v>
+        <v>0.65349715115306894</v>
       </c>
       <c r="BO35" s="0">
         <v>0</v>
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="B36" s="0">
-        <v>0.76553438120241424</v>
+        <v>0.82061251165773363</v>
       </c>
       <c r="C36" s="0">
         <v>0</v>
@@ -7506,7 +7506,7 @@
         <v>0</v>
       </c>
       <c r="BE36" s="0">
-        <v>0.50913852080230426</v>
+        <v>0.63621735348524355</v>
       </c>
       <c r="BF36" s="0">
         <v>0</v>
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="J37" s="0">
-        <v>0.83482519849252923</v>
+        <v>0.97878732933645263</v>
       </c>
       <c r="K37" s="0">
         <v>0</v>
@@ -7589,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="0">
-        <v>0.50535835513639804</v>
+        <v>0.63168882032128471</v>
       </c>
       <c r="Q37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.54674151770895096</v>
+        <v>0.80983907394145049</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7694,7 +7694,7 @@
         <v>0</v>
       </c>
       <c r="AY37" s="0">
-        <v>0.85890589856038302</v>
+        <v>0.87171417002417551</v>
       </c>
       <c r="AZ37" s="0">
         <v>0</v>
@@ -7882,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="AS38" s="0">
-        <v>0.58019019611065281</v>
+        <v>0.84427279293641067</v>
       </c>
       <c r="AT38" s="0">
         <v>0</v>
@@ -8037,7 +8037,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="0">
-        <v>0.61290505884174551</v>
+        <v>0.85502805037546792</v>
       </c>
       <c r="AC39" s="0">
         <v>0</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.63454499819766996</v>
+        <v>0.71388471627620798</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
@@ -8198,7 +8198,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="0">
-        <v>0.60984342362767385</v>
+        <v>0.66315064182835126</v>
       </c>
       <c r="N40" s="0">
         <v>0</v>
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="BL40" s="0">
-        <v>0.62799026088312948</v>
+        <v>0.73283697350244292</v>
       </c>
       <c r="BM40" s="0">
         <v>0</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="AF41" s="0">
-        <v>0.91369865320377053</v>
+        <v>0.91642311344244576</v>
       </c>
       <c r="AG41" s="0">
         <v>0</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="AT41" s="0">
-        <v>0.70533799894037286</v>
+        <v>0.82102347629459271</v>
       </c>
       <c r="AU41" s="0">
         <v>0</v>
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="E42" s="0">
-        <v>0.85843195646673931</v>
+        <v>0.91535669772971295</v>
       </c>
       <c r="F42" s="0">
         <v>0</v>
@@ -8646,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="Y42" s="0">
-        <v>0.67531307527278794</v>
+        <v>0.83993235903658336</v>
       </c>
       <c r="Z42" s="0">
         <v>0</v>
@@ -8712,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="AU42" s="0">
-        <v>0.54142358927670875</v>
+        <v>0.98630726843916972</v>
       </c>
       <c r="AV42" s="0">
         <v>0</v>
@@ -8724,7 +8724,7 @@
         <v>0</v>
       </c>
       <c r="AY42" s="0">
-        <v>0.72681798600082814</v>
+        <v>0.83650955003131977</v>
       </c>
       <c r="AZ42" s="0">
         <v>0</v>
@@ -8745,7 +8745,7 @@
         <v>0</v>
       </c>
       <c r="BF42" s="0">
-        <v>0.58454124458755996</v>
+        <v>0.58692093506263066</v>
       </c>
       <c r="BG42" s="0">
         <v>0</v>
@@ -8903,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="AP43" s="0">
-        <v>0.53365805969735447</v>
+        <v>0.66712564174407918</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -9106,7 +9106,7 @@
         <v>0</v>
       </c>
       <c r="AO44" s="0">
-        <v>0.63930874531820581</v>
+        <v>0.83847477336407372</v>
       </c>
       <c r="AP44" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>0.59116482179487018</v>
+        <v>0.76913657053340678</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9363,7 +9363,7 @@
         <v>0</v>
       </c>
       <c r="BF45" s="0">
-        <v>0.6940320518858718</v>
+        <v>0.90866444338378338</v>
       </c>
       <c r="BG45" s="0">
         <v>0</v>
@@ -9485,10 +9485,10 @@
         <v>0</v>
       </c>
       <c r="AD46" s="0">
-        <v>0.58430755559435821</v>
+        <v>0.91447609513266204</v>
       </c>
       <c r="AE46" s="0">
-        <v>0.80702987068663901</v>
+        <v>0.91775761464475503</v>
       </c>
       <c r="AF46" s="0">
         <v>0</v>
@@ -9530,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.75874552053311195</v>
+        <v>0.92408625670377609</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="0">
-        <v>0.68570676579008616</v>
+        <v>0.986433970751462</v>
       </c>
       <c r="L47" s="0">
         <v>0</v>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="0">
-        <v>0.6315676139744939</v>
+        <v>0.82263984632643883</v>
       </c>
       <c r="AA47" s="0">
         <v>0</v>
@@ -9703,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="AH47" s="0">
-        <v>0.66444977209475886</v>
+        <v>0.76725600422727314</v>
       </c>
       <c r="AI47" s="0">
         <v>0</v>
@@ -9870,7 +9870,7 @@
         <v>0.74843357628414009</v>
       </c>
       <c r="U48" s="0">
-        <v>0.68215269385640831</v>
+        <v>0.97077727315592177</v>
       </c>
       <c r="V48" s="0">
         <v>0</v>
@@ -10037,7 +10037,7 @@
         <v>0</v>
       </c>
       <c r="H49" s="0">
-        <v>0.66853788010538584</v>
+        <v>0.73594622954740452</v>
       </c>
       <c r="I49" s="0">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="AV49" s="0">
-        <v>0.68399244549881866</v>
+        <v>0.78940147222004464</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10202,7 +10202,7 @@
         <v>0</v>
       </c>
       <c r="BK49" s="0">
-        <v>0.61918747633695514</v>
+        <v>0.95950728811401897</v>
       </c>
       <c r="BL49" s="0">
         <v>0</v>
@@ -10387,7 +10387,7 @@
         <v>0</v>
       </c>
       <c r="BD50" s="0">
-        <v>0.75810404029671363</v>
+        <v>0.86204103573717883</v>
       </c>
       <c r="BE50" s="0">
         <v>0</v>
@@ -10452,7 +10452,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="0">
-        <v>0.77612726923098685</v>
+        <v>0.93594069763242094</v>
       </c>
       <c r="J51" s="0">
         <v>0</v>
@@ -10488,7 +10488,7 @@
         <v>0</v>
       </c>
       <c r="U51" s="0">
-        <v>0.55097844512227168</v>
+        <v>0.96132575569374157</v>
       </c>
       <c r="V51" s="0">
         <v>0</v>
@@ -10575,7 +10575,7 @@
         <v>0</v>
       </c>
       <c r="AX51" s="0">
-        <v>0.64980501951512737</v>
+        <v>0.76882411843368514</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
@@ -10715,7 +10715,7 @@
         <v>0</v>
       </c>
       <c r="AB52" s="0">
-        <v>0.69370598292981123</v>
+        <v>0.76949395255706432</v>
       </c>
       <c r="AC52" s="0">
         <v>0</v>
@@ -10879,7 +10879,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="0">
-        <v>0.72872998921885701</v>
+        <v>0.85656405262986346</v>
       </c>
       <c r="O53" s="0">
         <v>0</v>
@@ -11199,10 +11199,10 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>0.73766561799065311</v>
+        <v>0.89017248639099189</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.61764172574042386</v>
+        <v>0.763095067398607</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11432,7 +11432,7 @@
         <v>0</v>
       </c>
       <c r="BI55" s="0">
-        <v>0.66989265301296208</v>
+        <v>0.98495794824274641</v>
       </c>
       <c r="BJ55" s="0">
         <v>0</v>
@@ -11521,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="V56" s="0">
-        <v>0.5837817242283192</v>
+        <v>0.61112567305438581</v>
       </c>
       <c r="W56" s="0">
         <v>0</v>
@@ -11551,7 +11551,7 @@
         <v>0</v>
       </c>
       <c r="AF56" s="0">
-        <v>0.54539584105351202</v>
+        <v>0.58387151579847674</v>
       </c>
       <c r="AG56" s="0">
         <v>0</v>
@@ -11569,7 +11569,7 @@
         <v>0</v>
       </c>
       <c r="AL56" s="0">
-        <v>0.84058728786453984</v>
+        <v>0.84252464782051162</v>
       </c>
       <c r="AM56" s="0">
         <v>0</v>
@@ -11587,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="AR56" s="0">
-        <v>0.80529458829956324</v>
+        <v>0.90471439037334744</v>
       </c>
       <c r="AS56" s="0">
         <v>0</v>
@@ -11948,7 +11948,7 @@
         <v>0</v>
       </c>
       <c r="AA58" s="0">
-        <v>0.63055375083333742</v>
+        <v>0.73657183217983646</v>
       </c>
       <c r="AB58" s="0">
         <v>0</v>
@@ -12163,7 +12163,7 @@
         <v>0</v>
       </c>
       <c r="AD59" s="0">
-        <v>0.64356062093337552</v>
+        <v>0.7455535113228895</v>
       </c>
       <c r="AE59" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.60539162566849924</v>
+        <v>0.95332188050478739</v>
       </c>
       <c r="BF59" s="0">
         <v>0</v>
@@ -12265,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="BL59" s="0">
-        <v>0.51954165952787645</v>
+        <v>0.75375268145255725</v>
       </c>
       <c r="BM59" s="0">
         <v>0</v>
@@ -12447,7 +12447,7 @@
         <v>0</v>
       </c>
       <c r="BD60" s="0">
-        <v>0.6666030641993248</v>
+        <v>0.68869794839021781</v>
       </c>
       <c r="BE60" s="0">
         <v>0</v>
@@ -12480,7 +12480,7 @@
         <v>0</v>
       </c>
       <c r="BO60" s="0">
-        <v>0.60258082730536477</v>
+        <v>0.69076848483098963</v>
       </c>
       <c r="BP60" s="0">
         <v>0</v>
@@ -12500,7 +12500,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="0">
-        <v>0.60885002634728447</v>
+        <v>0.94160910628016459</v>
       </c>
       <c r="F61" s="0">
         <v>0</v>
@@ -12563,7 +12563,7 @@
         <v>0</v>
       </c>
       <c r="Z61" s="0">
-        <v>0.637332853944655</v>
+        <v>0.70362793629269649</v>
       </c>
       <c r="AA61" s="0">
         <v>0</v>
@@ -12715,10 +12715,10 @@
         <v>0</v>
       </c>
       <c r="H62" s="0">
-        <v>0.54277723959691815</v>
+        <v>0.96587720505470909</v>
       </c>
       <c r="I62" s="0">
-        <v>0.50922979176251326</v>
+        <v>0.82638949760060709</v>
       </c>
       <c r="J62" s="0">
         <v>0</v>
@@ -12853,7 +12853,7 @@
         <v>0</v>
       </c>
       <c r="BB62" s="0">
-        <v>0.63116407267644459</v>
+        <v>0.97536010511499938</v>
       </c>
       <c r="BC62" s="0">
         <v>0</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.77294587105254098</v>
+        <v>0.81900379409089386</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12972,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="Y63" s="0">
-        <v>0.54232084618324183</v>
+        <v>0.74872433504551572</v>
       </c>
       <c r="Z63" s="0">
         <v>0</v>
@@ -12984,7 +12984,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="0">
-        <v>0.78110657837826114</v>
+        <v>0.9892437841870666</v>
       </c>
       <c r="AD63" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0.81900379409089386</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.61397120207759404</v>
+        <v>0.87528871045126944</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13396,7 +13396,7 @@
         <v>0.94007560260208056</v>
       </c>
       <c r="AC65" s="0">
-        <v>0.7271800221030833</v>
+        <v>0.83178409347645843</v>
       </c>
       <c r="AD65" s="0">
         <v>0</v>
@@ -13438,7 +13438,7 @@
         <v>0</v>
       </c>
       <c r="AQ65" s="0">
-        <v>0.52640386318208843</v>
+        <v>0.83054368136046075</v>
       </c>
       <c r="AR65" s="0">
         <v>0</v>
@@ -13468,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="BA65" s="0">
-        <v>0.52251185265800482</v>
+        <v>0.77334127701109423</v>
       </c>
       <c r="BB65" s="0">
         <v>0</v>
@@ -13710,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>0.8184779328696915</v>
+        <v>0.95970596119062557</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
@@ -13730,7 +13730,7 @@
         <v>0</v>
       </c>
       <c r="C67" s="0">
-        <v>0.73800053567798951</v>
+        <v>0.8097514383561516</v>
       </c>
       <c r="D67" s="0">
         <v>0</v>
@@ -13925,7 +13925,7 @@
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.50331600642896923</v>
+        <v>0.81778621955286801</v>
       </c>
     </row>
     <row r="68">
@@ -13993,7 +13993,7 @@
         <v>0</v>
       </c>
       <c r="V68" s="0">
-        <v>0.54708756859160723</v>
+        <v>0.88291211186740848</v>
       </c>
       <c r="W68" s="0">
         <v>0.92030592716104409</v>
